--- a/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>光大保德信瑞和混合C</t>
   </si>
   <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
     <t>72.94</t>
   </si>
   <si>
     <t>4.18</t>
+  </si>
+  <si>
+    <t>0.1020</t>
+  </si>
+  <si>
+    <t>0.0017</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>009486</t>
-  </si>
-  <si>
-    <t>009487</t>
-  </si>
-  <si>
-    <t>光大保德信瑞和混合A</t>
-  </si>
-  <si>
-    <t>光大保德信瑞和混合C</t>
-  </si>
-  <si>
-    <t>2.44</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>72.94</t>
-  </si>
-  <si>
-    <t>4.18</t>
-  </si>
-  <si>
-    <t>0.1020</t>
-  </si>
-  <si>
-    <t>0.0017</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,14 +901,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.39</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -896,14 +939,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5701</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -912,13 +977,1389 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3416</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9594</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7986</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6076</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5904</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2274,7 +2275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2285,17 +2286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2305,14 +2326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.43</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1078</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2321,14 +2364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -2337,14 +2402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -2353,13 +2440,3685 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9511</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7314</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6843</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6811</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6482</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4831</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3753</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3454</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2758</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012021</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012022</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>64.31</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>97</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6017,7 +6018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6028,17 +6029,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6048,14 +6069,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>97</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.18</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6064,14 +6107,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.43</v>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5352</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6080,14 +6145,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.39</v>
       </c>
     </row>
     <row r="5">
@@ -6096,14 +6183,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2165</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6112,13 +6221,2523 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1720</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7856</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7581</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6288</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>53.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5960</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5621</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4160</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3933</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3421</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2799</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>51.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008119</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华金享混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003828</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华兴惠定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008058</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001329</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>66.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008059</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华鑫享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001330</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华弘实灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>67</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>97</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
-        <v>16.71</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n">
-        <v>11.43</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>0.39</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -583,6 +600,2378 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3854</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4136</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9537</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>53.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5313</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4217</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3465</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>64.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3184,7 +5573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6926,7 +9315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8343,138 +10732,6 @@
       </c>
       <c r="H37" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2490</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1457</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8539,36 +10796,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519191</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家新利灵活配置混合</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>64.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0802</t>
+          <t>0.2490</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -8577,36 +10834,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519212</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家宏观择时多策略灵活配置混合</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.1457</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8615,6 +10872,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
+++ b/数据整理/stocks/A股/深证主板/002100-天康生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>11.86</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>16.71</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>19.18</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n">
-        <v>11.43</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -600,6 +617,1086 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010488</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011568</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4867</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160603</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华普天收益混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015384</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013326</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008491</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010489</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013327</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011569</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008492</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家周期优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.04</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信澳量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>017679</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2971,7 +4068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5573,7 +6670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9315,7 +10412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10732,138 +11829,6 @@
       </c>
       <c r="H37" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>64.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2490</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003751</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1457</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10928,36 +11893,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519191</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家新利灵活配置混合</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>64.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0802</t>
+          <t>0.2490</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -10966,36 +11931,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519212</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家宏观择时多策略灵活配置混合</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>92.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.1457</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -11004,6 +11969,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
